--- a/outputs/ML_Results/carown_LR_new/All_short_table.xlsx
+++ b/outputs/ML_Results/carown_LR_new/All_short_table.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\projects\sufficcs_mobility\outputs\ML_Results\carown_LR_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7554B51-B488-49A8-A683-ED7DE7F395A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF42795-9877-49AE-8A72-728D7A6EE9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_short" sheetId="1" r:id="rId1"/>
-    <sheet name="table" sheetId="2" r:id="rId2"/>
-    <sheet name="all" sheetId="3" r:id="rId3"/>
+    <sheet name="All_short_table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="41">
   <si>
     <t>city</t>
   </si>
@@ -51,18 +50,6 @@
     <t>UniversityEducation</t>
   </si>
   <si>
-    <t>HHType_simp[T.MultiAdult_Kids]</t>
-  </si>
-  <si>
-    <t>HHType_simp[T.Single_Female]</t>
-  </si>
-  <si>
-    <t>HHType_simp[T.Single_Male]</t>
-  </si>
-  <si>
-    <t>HHType_simp[T.Single_Parent]</t>
-  </si>
-  <si>
     <t>DistCenter</t>
   </si>
   <si>
@@ -72,36 +59,36 @@
     <t>UrbPopDensity</t>
   </si>
   <si>
+    <t>IntersecDensity</t>
+  </si>
+  <si>
+    <t>street_length</t>
+  </si>
+  <si>
+    <t>bike_lane_share</t>
+  </si>
+  <si>
+    <t>transit_accessibility</t>
+  </si>
+  <si>
+    <t>LU_UrbFab</t>
+  </si>
+  <si>
+    <t>LU_Comm</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>France_other</t>
+  </si>
+  <si>
+    <t>Germany_other</t>
+  </si>
+  <si>
     <t>UrbBuildDensity</t>
   </si>
   <si>
-    <t>IntersecDensity</t>
-  </si>
-  <si>
-    <t>street_length</t>
-  </si>
-  <si>
-    <t>bike_lane_share</t>
-  </si>
-  <si>
-    <t>transit_accessibility</t>
-  </si>
-  <si>
-    <t>LU_UrbFab</t>
-  </si>
-  <si>
-    <t>LU_Comm</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>France_other</t>
-  </si>
-  <si>
-    <t>Germany_other</t>
-  </si>
-  <si>
     <t>Feature</t>
   </si>
   <si>
@@ -129,18 +116,6 @@
     <t>University Education</t>
   </si>
   <si>
-    <t>HH Type MultiAdult + Kids</t>
-  </si>
-  <si>
-    <t>HH Type Single Female</t>
-  </si>
-  <si>
-    <t>HH Type Single Male</t>
-  </si>
-  <si>
-    <t>HH Type Single Parent</t>
-  </si>
-  <si>
     <t>Dist. to center</t>
   </si>
   <si>
@@ -162,39 +137,13 @@
     <t>Cycle lane share (%)</t>
   </si>
   <si>
+    <t>Transit accessibility</t>
+  </si>
+  <si>
     <t>Urban fabric area (%)</t>
   </si>
   <si>
     <t>Commercial area (%)</t>
-  </si>
-  <si>
-    <t>Transit accessibility</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Country</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Germany</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -202,8 +151,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
@@ -691,16 +640,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -746,27 +694,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1089,11 +1017,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56:C73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1117,10 +1048,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.8848731007610002E-4</v>
+        <v>4.5776190828559999E-4</v>
       </c>
       <c r="D2" s="1">
-        <v>9.51546946192016E-91</v>
+        <v>2.5078569885002201E-134</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1130,8 +1061,11 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>0.31080146254743801</v>
+      <c r="C3">
+        <v>0.36942696967243199</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6.3910731785157995E-54</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1142,10 +1076,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>2.29237656101185E-2</v>
+        <v>2.3893755066493699E-2</v>
       </c>
       <c r="D4" s="1">
-        <v>1.9869232820677102E-31</v>
+        <v>1.20445804010983E-34</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1156,63 +1090,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>-0.20133648771107601</v>
+        <v>-0.17447005055871101</v>
       </c>
       <c r="D5">
-        <v>1.794755498906E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>0.21947720443927099</v>
-      </c>
-      <c r="D6">
-        <v>2.6679709785100598E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>-1.14233105937802</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1.1666708053503601E-45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>-0.60056831124590904</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2.1419204583912801E-12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>0.104212402444415</v>
+        <v>8.5531055737529996E-4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1220,13 +1101,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>8.2745017620180106E-2</v>
+        <v>8.6202666595121394E-2</v>
       </c>
       <c r="D10" s="1">
-        <v>2.9247671813767502E-17</v>
+        <v>6.5974255544013696E-19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1234,10 +1115,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>2.22766207101424E-2</v>
       </c>
       <c r="D11">
-        <v>0.39071182052578801</v>
+        <v>0.18939587083898099</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1245,24 +1129,13 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1">
-        <v>-8.2923925206356195E-5</v>
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>-6.2581543582461603E-3</v>
       </c>
       <c r="D12" s="1">
-        <v>9.6249647374510005E-27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13">
-        <v>0.119231083670232</v>
+        <v>3.2859332945427902E-27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1270,10 +1143,13 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>1.6069674673948001E-3</v>
       </c>
       <c r="D14">
-        <v>0.39648394100898399</v>
+        <v>0.60792465816839403</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1281,10 +1157,13 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>2.3754045473709999E-3</v>
       </c>
       <c r="D15">
-        <v>0.103200572070503</v>
+        <v>0.17101010226749</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1292,10 +1171,13 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>-1.05378121269048E-3</v>
       </c>
       <c r="D16">
-        <v>0.65963488746782295</v>
+        <v>0.75026331093222798</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1303,10 +1185,13 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-2.1715042383243499E-5</v>
       </c>
       <c r="D17">
-        <v>0.13343969249808299</v>
+        <v>0.38496982630898002</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1314,13 +1199,13 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>1.11059666710318E-2</v>
+        <v>1.00303855113162E-2</v>
       </c>
       <c r="D18" s="1">
-        <v>7.4731621429378493E-9</v>
+        <v>4.2058332736966998E-7</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1328,1332 +1213,805 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C19">
-        <v>-5.3848788144661404E-3</v>
+        <v>-2.2737866263727599E-3</v>
       </c>
       <c r="D19">
-        <v>5.6126557664716498E-2</v>
+        <v>0.36589972448123698</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20">
-        <v>6.2907630237440005E-4</v>
+        <v>6.8325866620889996E-4</v>
       </c>
       <c r="D20" s="1">
-        <v>7.3088928118392898E-93</v>
+        <v>7.1357439451318105E-122</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="D21">
-        <v>0.691380276160386</v>
+      <c r="C21">
+        <v>0.19874446447900901</v>
+      </c>
+      <c r="D21" s="1">
+        <v>6.5312590629535097E-13</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22">
-        <v>1.5170574094766E-2</v>
+        <v>1.46082661841603E-2</v>
       </c>
       <c r="D22" s="1">
-        <v>1.2376875613378699E-7</v>
+        <v>6.5354265629170898E-8</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23">
-        <v>0.27405687621888802</v>
+        <v>0.262692509507503</v>
       </c>
       <c r="D23">
-        <v>1.3737273509670001E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24">
-        <v>0.26513559991828001</v>
-      </c>
-      <c r="D24">
-        <v>5.8390321012915899E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25">
-        <v>-0.60006507034370604</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1.0954870530193E-7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26">
-        <v>-0.36482881654962701</v>
-      </c>
-      <c r="D26">
-        <v>2.3888350405665E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27">
-        <v>-0.36798333660878202</v>
-      </c>
-      <c r="D27">
-        <v>4.6343991595851003E-3</v>
+        <v>4.7341652666680001E-4</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C28">
-        <v>4.5984902611127899E-2</v>
+        <v>4.7845830551887299E-2</v>
       </c>
       <c r="D28">
-        <v>1.8968738911287E-3</v>
+        <v>8.9927231373919999E-4</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>1.9452960609016999E-3</v>
       </c>
       <c r="D29">
-        <v>0.63959292216253205</v>
+        <v>0.77282639040554202</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="1">
-        <v>-3.5479645461289299E-5</v>
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>-2.7143657981100701E-3</v>
       </c>
       <c r="D30" s="1">
-        <v>1.2492035195295099E-6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31">
-        <v>3.4713509094377003E-2</v>
-      </c>
-      <c r="D31">
-        <v>3.49593420774428E-2</v>
+        <v>4.3091296483825403E-6</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>-6.3936060411700002E-3</v>
       </c>
       <c r="D32">
-        <v>0.103417189203846</v>
+        <v>7.6815304953378197E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <v>-5.1548339608083003E-3</v>
       </c>
       <c r="D33">
-        <v>0.24157169479759799</v>
+        <v>0.297579297374989</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C34">
-        <v>-1.3876404690812799E-2</v>
+        <v>-1.5955598863435502E-2</v>
       </c>
       <c r="D34">
-        <v>3.2992368278804002E-3</v>
+        <v>1.4097865497300001E-4</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35">
-        <v>-1.092292607479E-4</v>
+        <v>15</v>
+      </c>
+      <c r="C35" s="1">
+        <v>-6.0421469060278299E-5</v>
       </c>
       <c r="D35">
-        <v>1.5002979594922999E-3</v>
+        <v>5.9658424056672002E-3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C36">
-        <v>9.6718779060840504E-3</v>
+        <v>8.7509692202762095E-3</v>
       </c>
       <c r="D36">
-        <v>4.2405967405578998E-3</v>
+        <v>7.366386609412E-3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="C37">
+        <v>-1.8145948234954399E-3</v>
       </c>
       <c r="D37">
-        <v>0.180396373525335</v>
+        <v>0.66301575509465405</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
       </c>
       <c r="C38">
-        <v>9.0063276721230004E-4</v>
+        <v>1.0112538326046E-3</v>
       </c>
       <c r="D38" s="1">
-        <v>4.8349491472088797E-37</v>
+        <v>2.88708163129558E-49</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
       </c>
-      <c r="D39">
-        <v>0.72485404109150897</v>
+      <c r="C39">
+        <v>0.26956031775896</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2.7507855229046699E-6</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
       <c r="C40">
-        <v>-9.5192880386421007E-3</v>
+        <v>-7.7421817757200003E-3</v>
       </c>
       <c r="D40">
-        <v>6.3634355998025E-3</v>
+        <v>1.6943680658956399E-2</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
       </c>
       <c r="C41">
-        <v>0.61826001503389605</v>
+        <v>0.602746697546655</v>
       </c>
       <c r="D41" s="1">
-        <v>1.09142587288362E-7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42">
-        <v>0.61927023458336194</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43">
-        <v>-0.94236163303176101</v>
-      </c>
-      <c r="D43" s="1">
-        <v>1.24087327208425E-6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44">
-        <v>-0.77449772038672304</v>
-      </c>
-      <c r="D44" s="1">
-        <v>9.2601587317078099E-5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45">
-        <v>-0.92583276640970402</v>
-      </c>
-      <c r="D45" s="1">
-        <v>1.5689198296090599E-5</v>
+        <v>2.6486321748643601E-7</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C46">
-        <v>4.7516463690025698E-2</v>
+        <v>6.23635167201698E-2</v>
       </c>
       <c r="D46">
-        <v>2.7194895766762098E-2</v>
+        <v>2.2048440348019002E-3</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>-4.8792847809161002E-3</v>
       </c>
       <c r="D47">
-        <v>0.79134649384024602</v>
+        <v>0.84362461401357103</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48">
-        <v>0.34263914956591002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49">
-        <v>0.82898242842124303</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>24</v>
-      </c>
-      <c r="B50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50">
-        <v>-7.1027046325431E-3</v>
-      </c>
-      <c r="D50">
-        <v>4.37556633818343E-2</v>
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>-8.6906203171998597E-3</v>
+      </c>
+      <c r="D48" s="1">
+        <v>4.3607890749997197E-6</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="C51">
+        <v>3.7033013836886E-3</v>
       </c>
       <c r="D51">
-        <v>0.67719655022794001</v>
+        <v>0.26963330913816602</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C52">
-        <v>-1.3229049363616499E-2</v>
+        <v>-1.46941939436888E-2</v>
       </c>
       <c r="D52">
-        <v>6.6747461557503003E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B53" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53">
-        <v>0.28408088901265699</v>
+        <v>7.4457406156960002E-4</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C54">
-        <v>7.2033812826254604E-3</v>
+        <v>4.97259978231414E-3</v>
       </c>
       <c r="D54">
-        <v>7.8105547907850098E-2</v>
+        <v>0.14038342487334901</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="C55">
+        <v>4.4307879617693299E-4</v>
       </c>
       <c r="D55">
-        <v>0.51932834347512402</v>
+        <v>0.82027571364049601</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
       </c>
       <c r="C56">
-        <v>4.9597546948720005E-4</v>
+        <v>5.7313301779360001E-4</v>
       </c>
       <c r="D56" s="1">
-        <v>3.5104773701856999E-55</v>
+        <v>5.7396598352432401E-82</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
       </c>
-      <c r="D57">
-        <v>0.45204056192386499</v>
+      <c r="C57">
+        <v>0.39011711623294598</v>
+      </c>
+      <c r="D57" s="1">
+        <v>7.5855300085947993E-24</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
       </c>
       <c r="C58">
-        <v>7.9850408717708002E-3</v>
-      </c>
-      <c r="D58">
-        <v>4.3212583423224002E-3</v>
+        <v>1.0627045279365E-2</v>
+      </c>
+      <c r="D58" s="1">
+        <v>7.05371490400656E-5</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
       </c>
       <c r="C59">
-        <v>-0.14614514618190699</v>
+        <v>-0.13995482103845999</v>
       </c>
       <c r="D59">
-        <v>5.3683756121599903E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>25</v>
-      </c>
-      <c r="B60" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60">
-        <v>0.39674709342926401</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>25</v>
-      </c>
-      <c r="B61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61">
-        <v>0.89630604019015503</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>25</v>
-      </c>
-      <c r="B62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62">
-        <v>0.81501743720455699</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>25</v>
-      </c>
-      <c r="B63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63">
-        <v>0.68735797129088505</v>
+        <v>5.5042836696295699E-2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C64">
-        <v>8.2627470659014907E-2</v>
+        <v>8.6299112461610497E-2</v>
       </c>
       <c r="D64" s="1">
-        <v>7.3360395849127502E-6</v>
+        <v>1.40990878077763E-6</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>3.5912152049348998E-3</v>
       </c>
       <c r="D65">
-        <v>0.63770727997991195</v>
+        <v>0.71478214864575196</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" s="1">
-        <v>-4.4023912505592601E-5</v>
+        <v>11</v>
+      </c>
+      <c r="C66">
+        <v>-4.2984503167742697E-3</v>
       </c>
       <c r="D66">
-        <v>6.4520554422432003E-3</v>
+        <v>1.19973432906E-3</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="C67">
+        <v>-1.67412442467475E-2</v>
       </c>
       <c r="D67">
-        <v>0.54039765761401404</v>
+        <v>0.35419353604236198</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C68">
-        <v>-7.8539895319704005E-3</v>
+        <v>-5.3412806445605997E-3</v>
       </c>
       <c r="D68">
-        <v>6.7697743873968597E-2</v>
+        <v>0.18835053596374701</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="C69">
+        <v>-3.1226831780352998E-3</v>
       </c>
       <c r="D69">
-        <v>0.15217634688855899</v>
+        <v>0.21174921920656301</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C70">
-        <v>-1.4716129525375101E-2</v>
+        <v>-1.7111211128654099E-2</v>
       </c>
       <c r="D70" s="1">
-        <v>1.17827356821284E-5</v>
+        <v>1.11673916335109E-7</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="C71" s="1">
+        <v>-1.8534716663145101E-5</v>
       </c>
       <c r="D71">
-        <v>0.20096813355902099</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>25</v>
-      </c>
-      <c r="B72" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72">
-        <v>0.219831838417019</v>
+        <v>0.63982842909014304</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="C73">
+        <v>1.2570167427050001E-3</v>
       </c>
       <c r="D73">
-        <v>0.71519973268932602</v>
+        <v>0.67689840736588802</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
-      <formula>0.05</formula>
-      <formula>0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:F20"/>
+  <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F20"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="4">
-        <v>3.8848731007610002E-4</v>
-      </c>
-      <c r="D3" s="4">
-        <v>6.2907630237440005E-4</v>
-      </c>
-      <c r="E3" s="4">
-        <v>9.0063276721230004E-4</v>
-      </c>
-      <c r="F3" s="4">
-        <v>4.9597546948720005E-4</v>
+        <v>27</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4.5776190828559999E-4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>6.8325866620889996E-4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1.0112538326046E-3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5.7313301779360001E-4</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.36942696967243199</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.19874446447900901</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.26956031775896</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.39011711623294598</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2.29237656101185E-2</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1.5170574094766E-2</v>
-      </c>
-      <c r="E5" s="5">
-        <v>-9.5192880386421007E-3</v>
-      </c>
-      <c r="F5" s="5">
-        <v>7.9850408717708002E-3</v>
+        <v>29</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2.3893755066493699E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.46082661841603E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>-7.7421817757200003E-3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1.0627045279365E-2</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="5">
-        <v>-0.20133648771107601</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.27405687621888802</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.61826001503389605</v>
-      </c>
-      <c r="F6" s="6">
-        <v>-0.14614514618190699</v>
+        <v>30</v>
+      </c>
+      <c r="C6" s="4">
+        <v>-0.17447005055871101</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.262692509507503</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.602746697546655</v>
+      </c>
+      <c r="F6" s="4">
+        <v>-0.13995482103845999</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.21947720443927099</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.26513559991828001</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8.6202666595121394E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4.7845830551887299E-2</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6.23635167201698E-2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>8.6299112461610497E-2</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="5">
-        <v>-1.14233105937802</v>
-      </c>
-      <c r="D8" s="5">
-        <v>-0.60006507034370604</v>
-      </c>
-      <c r="E8" s="5">
-        <v>-0.94236163303176101</v>
-      </c>
-      <c r="F8" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2.22766207101424E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.9452960609016999E-3</v>
+      </c>
+      <c r="E8" s="4">
+        <v>-4.8792847809161002E-3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3.5912152049348998E-3</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="5">
-        <v>-0.60056831124590904</v>
-      </c>
-      <c r="D9" s="5">
-        <v>-0.36482881654962701</v>
-      </c>
-      <c r="E9" s="5">
-        <v>-0.77449772038672304</v>
-      </c>
-      <c r="F9" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="C9" s="4">
+        <v>-6.2581543582461603E-3</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-2.7143657981100701E-3</v>
+      </c>
+      <c r="E9" s="4">
+        <v>-8.6906203171998597E-3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>-4.2984503167742697E-3</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5">
-        <v>-0.36798333660878202</v>
-      </c>
-      <c r="E10" s="5">
-        <v>-0.92583276640970402</v>
-      </c>
-      <c r="F10" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
+        <v>-1.67412442467475E-2</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="5">
-        <v>8.2745017620180106E-2</v>
-      </c>
-      <c r="D11" s="5">
-        <v>4.5984902611127899E-2</v>
-      </c>
-      <c r="E11" s="5">
-        <v>4.7516463690025698E-2</v>
-      </c>
-      <c r="F11" s="5">
-        <v>8.2627470659014907E-2</v>
+        <v>35</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1.6069674673948001E-3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>-6.3936060411700002E-3</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
+        <v>-5.3412806445605997E-3</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2.3754045473709999E-3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>-5.1548339608083003E-3</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3.7033013836886E-3</v>
+      </c>
+      <c r="F12" s="4">
+        <v>-3.1226831780352998E-3</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C13" s="4">
-        <v>-8.2923925206356195E-5</v>
-      </c>
-      <c r="D13" s="7">
-        <v>-3.5479645461289299E-5</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="7">
-        <v>-4.4023912505592601E-5</v>
+        <v>-1.05378121269048E-3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>-1.5955598863435502E-2</v>
+      </c>
+      <c r="E13" s="4">
+        <v>-1.46941939436888E-2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>-1.7111211128654099E-2</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5">
-        <v>3.4713509094377003E-2</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="C14" s="7">
+        <v>-2.1715042383243499E-5</v>
+      </c>
+      <c r="D14" s="7">
+        <v>-6.0421469060278299E-5</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7">
+        <v>-1.8534716663145101E-5</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5">
-        <v>-7.1027046325431E-3</v>
-      </c>
-      <c r="F15" s="6">
-        <v>-7.8539895319704005E-3</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1.00303855113162E-2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>8.7509692202762095E-3</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4.97259978231414E-3</v>
+      </c>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5">
-        <v>-1.3876404690812799E-2</v>
-      </c>
-      <c r="E17" s="5">
-        <v>-1.3229049363616499E-2</v>
-      </c>
-      <c r="F17" s="5">
-        <v>-1.4716129525375101E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4">
-        <v>-1.092292607479E-4</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1.11059666710318E-2</v>
-      </c>
-      <c r="D19" s="5">
-        <v>9.6718779060840504E-3</v>
-      </c>
-      <c r="E19" s="6">
-        <v>7.2033812826254604E-3</v>
-      </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="6">
-        <v>-5.3848788144661404E-3</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="C16" s="4">
+        <v>-2.2737866263727599E-3</v>
+      </c>
+      <c r="D16" s="4">
+        <v>-1.8145948234954399E-3</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4.4307879617693299E-4</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1.2570167427050001E-3</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
-      <formula>0.05</formula>
-      <formula>0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2D882E-AF0B-432A-9BC6-43824676E1CF}">
-  <dimension ref="B1:G21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="5">
-        <v>-0.83071756783374995</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="4">
-        <v>3.8848731007610002E-4</v>
-      </c>
-      <c r="D4" s="4">
-        <v>6.2907630237440005E-4</v>
-      </c>
-      <c r="E4" s="4">
-        <v>9.0063276721230004E-4</v>
-      </c>
-      <c r="F4" s="4">
-        <v>4.9597546948720005E-4</v>
-      </c>
-      <c r="G4" s="4">
-        <v>4.8424566488219998E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2.29237656101185E-2</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1.5170574094766E-2</v>
-      </c>
-      <c r="E6" s="5">
-        <v>-9.5192880386421007E-3</v>
-      </c>
-      <c r="F6" s="5">
-        <v>7.9850408717708002E-3</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1.4249081534712099E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="5">
-        <v>-0.20133648771107601</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.27405687621888802</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.61826001503389605</v>
-      </c>
-      <c r="F7" s="6">
-        <v>-0.14614514618190699</v>
-      </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.21947720443927099</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.26513559991828001</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="5">
-        <v>-1.14233105937802</v>
-      </c>
-      <c r="D9" s="5">
-        <v>-0.60006507034370604</v>
-      </c>
-      <c r="E9" s="5">
-        <v>-0.94236163303176101</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="5">
-        <v>-0.60056831124590904</v>
-      </c>
-      <c r="D10" s="5">
-        <v>-0.36482881654962701</v>
-      </c>
-      <c r="E10" s="5">
-        <v>-0.77449772038672304</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="5">
-        <v>-0.36798333660878202</v>
-      </c>
-      <c r="E11" s="5">
-        <v>-0.92583276640970402</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="5">
-        <v>8.2745017620180106E-2</v>
-      </c>
-      <c r="D12" s="5">
-        <v>4.5984902611127899E-2</v>
-      </c>
-      <c r="E12" s="5">
-        <v>4.7516463690025698E-2</v>
-      </c>
-      <c r="F12" s="5">
-        <v>8.2627470659014907E-2</v>
-      </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="4">
-        <v>-8.2923925206356195E-5</v>
-      </c>
-      <c r="D14" s="7">
-        <v>-3.5479645461289299E-5</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="7">
-        <v>-4.4023912505592601E-5</v>
-      </c>
-      <c r="G14" s="4">
-        <v>-7.7139253658531701E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5">
-        <v>3.4713509094377003E-2</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5">
-        <v>2.2374517774651201E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5">
-        <v>-7.1027046325431E-3</v>
-      </c>
-      <c r="F16" s="6">
-        <v>-7.8539895319704005E-3</v>
-      </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5">
-        <v>-1.3876404690812799E-2</v>
-      </c>
-      <c r="E18" s="5">
-        <v>-1.3229049363616499E-2</v>
-      </c>
-      <c r="F18" s="5">
-        <v>-1.4716129525375101E-2</v>
-      </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4">
-        <v>-1.092292607479E-4</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="4">
-        <v>-1.7903589217290001E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1.11059666710318E-2</v>
-      </c>
-      <c r="D20" s="5">
-        <v>9.6718779060840504E-3</v>
-      </c>
-      <c r="E20" s="6">
-        <v>7.2033812826254604E-3</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5">
-        <v>6.6885673951374604E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="6">
-        <v>-5.3848788144661404E-3</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5">
-        <v>-1.18021733762971E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="D1:D3">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>0.05</formula>
       <formula>0.1</formula>

--- a/outputs/ML_Results/carown_LR_new/All_short_table.xlsx
+++ b/outputs/ML_Results/carown_LR_new/All_short_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\projects\sufficcs_mobility\outputs\ML_Results\carown_LR_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF42795-9877-49AE-8A72-728D7A6EE9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376844AB-C0A9-4742-BBEF-E3C322A3D1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_short" sheetId="1" r:id="rId1"/>
@@ -640,9 +640,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -719,9 +718,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -759,7 +758,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -865,7 +864,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1007,7 +1006,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1017,13 +1016,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1036,7 +1035,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1048,10 +1047,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.5776190828559999E-4</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2.5078569885002201E-134</v>
+        <v>4.5764067259090001E-4</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3.0992495407582001E-134</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1062,10 +1061,10 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0.36942696967243199</v>
-      </c>
-      <c r="D3" s="1">
-        <v>6.3910731785157995E-54</v>
+        <v>0.36965322218701901</v>
+      </c>
+      <c r="D3" s="4">
+        <v>5.4762725321819101E-54</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1076,10 +1075,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>2.3893755066493699E-2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1.20445804010983E-34</v>
+        <v>2.3871666331404199E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.4430234169333199E-34</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1090,10 +1089,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>-0.17447005055871101</v>
-      </c>
-      <c r="D5">
-        <v>8.5531055737529996E-4</v>
+        <v>-0.17442064233680399</v>
+      </c>
+      <c r="D5" s="4">
+        <v>8.5724007580769996E-4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1104,10 +1103,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>8.6202666595121394E-2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>6.5974255544013696E-19</v>
+        <v>8.7739154793546201E-2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3.9186894341655401E-19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1118,10 +1117,10 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>2.22766207101424E-2</v>
-      </c>
-      <c r="D11">
-        <v>0.18939587083898099</v>
+        <v>2.2663049518427399E-2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.18117568839796599</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1132,10 +1131,10 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>-6.2581543582461603E-3</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3.2859332945427902E-27</v>
+        <v>-6.2859399253724401E-3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2.3397796907962101E-27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1146,10 +1145,10 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.6069674673948001E-3</v>
-      </c>
-      <c r="D14">
-        <v>0.60792465816839403</v>
+        <v>1.3306939680233999E-3</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.669712425605132</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1160,10 +1159,10 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>2.3754045473709999E-3</v>
-      </c>
-      <c r="D15">
-        <v>0.17101010226749</v>
+        <v>2.3472106558453001E-3</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.176565144568649</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1174,10 +1173,10 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>-1.05378121269048E-3</v>
-      </c>
-      <c r="D16">
-        <v>0.75026331093222798</v>
+        <v>-1.31020685117116E-3</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.71708238515087996</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1187,11 +1186,11 @@
       <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="1">
-        <v>-2.1715042383243499E-5</v>
-      </c>
-      <c r="D17">
-        <v>0.38496982630898002</v>
+      <c r="C17">
+        <v>-8.4625102806419996E-4</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.60782643293975902</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1202,10 +1201,10 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.00303855113162E-2</v>
-      </c>
-      <c r="D18" s="1">
-        <v>4.2058332736966998E-7</v>
+        <v>9.8814598012732201E-3</v>
+      </c>
+      <c r="D18" s="4">
+        <v>6.0174705249799301E-7</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1216,10 +1215,10 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>-2.2737866263727599E-3</v>
-      </c>
-      <c r="D19">
-        <v>0.36589972448123698</v>
+        <v>-2.5258065640367498E-3</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.31450757537412999</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1230,10 +1229,10 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>6.8325866620889996E-4</v>
-      </c>
-      <c r="D20" s="1">
-        <v>7.1357439451318105E-122</v>
+        <v>6.8378362228179996E-4</v>
+      </c>
+      <c r="D20" s="4">
+        <v>5.5862151240997595E-122</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1244,10 +1243,10 @@
         <v>6</v>
       </c>
       <c r="C21">
-        <v>0.19874446447900901</v>
-      </c>
-      <c r="D21" s="1">
-        <v>6.5312590629535097E-13</v>
+        <v>0.19870615910146799</v>
+      </c>
+      <c r="D21" s="4">
+        <v>6.5142889920334899E-13</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1258,10 +1257,10 @@
         <v>7</v>
       </c>
       <c r="C22">
-        <v>1.46082661841603E-2</v>
-      </c>
-      <c r="D22" s="1">
-        <v>6.5354265629170898E-8</v>
+        <v>1.4624830561312399E-2</v>
+      </c>
+      <c r="D22" s="4">
+        <v>6.3858744874163003E-8</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1272,10 +1271,10 @@
         <v>8</v>
       </c>
       <c r="C23">
-        <v>0.262692509507503</v>
-      </c>
-      <c r="D23">
-        <v>4.7341652666680001E-4</v>
+        <v>0.26131592423564598</v>
+      </c>
+      <c r="D23" s="4">
+        <v>5.053069658467E-4</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1286,10 +1285,10 @@
         <v>9</v>
       </c>
       <c r="C28">
-        <v>4.7845830551887299E-2</v>
-      </c>
-      <c r="D28">
-        <v>8.9927231373919999E-4</v>
+        <v>4.68545862502079E-2</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1.0776796579018001E-3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1300,10 +1299,10 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>1.9452960609016999E-3</v>
-      </c>
-      <c r="D29">
-        <v>0.77282639040554202</v>
+        <v>3.5683711209819999E-3</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.77024619058479604</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1314,10 +1313,10 @@
         <v>11</v>
       </c>
       <c r="C30">
-        <v>-2.7143657981100701E-3</v>
-      </c>
-      <c r="D30" s="1">
-        <v>4.3091296483825403E-6</v>
+        <v>-2.6643501942980202E-3</v>
+      </c>
+      <c r="D30" s="4">
+        <v>6.9488579776770902E-6</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1328,10 +1327,10 @@
         <v>12</v>
       </c>
       <c r="C32">
-        <v>-6.3936060411700002E-3</v>
-      </c>
-      <c r="D32">
-        <v>7.6815304953378197E-2</v>
+        <v>-6.0947950460683003E-3</v>
+      </c>
+      <c r="D32" s="4">
+        <v>9.1972382832793007E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1342,10 +1341,10 @@
         <v>13</v>
       </c>
       <c r="C33">
-        <v>-5.1548339608083003E-3</v>
-      </c>
-      <c r="D33">
-        <v>0.297579297374989</v>
+        <v>-4.7496094838162996E-3</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.33759213568531898</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1356,10 +1355,10 @@
         <v>14</v>
       </c>
       <c r="C34">
-        <v>-1.5955598863435502E-2</v>
-      </c>
-      <c r="D34">
-        <v>1.4097865497300001E-4</v>
+        <v>-1.5051930478061901E-2</v>
+      </c>
+      <c r="D34" s="4">
+        <v>3.5455673049110002E-4</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1369,11 +1368,11 @@
       <c r="B35" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="1">
-        <v>-6.0421469060278299E-5</v>
-      </c>
-      <c r="D35">
-        <v>5.9658424056672002E-3</v>
+      <c r="C35">
+        <v>-5.8856194619800999E-3</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1.7132198378732001E-3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1384,10 +1383,10 @@
         <v>16</v>
       </c>
       <c r="C36">
-        <v>8.7509692202762095E-3</v>
-      </c>
-      <c r="D36">
-        <v>7.366386609412E-3</v>
+        <v>8.4555993099673099E-3</v>
+      </c>
+      <c r="D36" s="4">
+        <v>9.4162253485532994E-3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1398,10 +1397,10 @@
         <v>17</v>
       </c>
       <c r="C37">
-        <v>-1.8145948234954399E-3</v>
-      </c>
-      <c r="D37">
-        <v>0.66301575509465405</v>
+        <v>-1.8289442466380001E-3</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.65988187520171304</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1414,7 +1413,7 @@
       <c r="C38">
         <v>1.0112538326046E-3</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="4">
         <v>2.88708163129558E-49</v>
       </c>
     </row>
@@ -1428,7 +1427,7 @@
       <c r="C39">
         <v>0.26956031775896</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="4">
         <v>2.7507855229046699E-6</v>
       </c>
     </row>
@@ -1442,7 +1441,7 @@
       <c r="C40">
         <v>-7.7421817757200003E-3</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="4">
         <v>1.6943680658956399E-2</v>
       </c>
     </row>
@@ -1456,7 +1455,7 @@
       <c r="C41">
         <v>0.602746697546655</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="4">
         <v>2.6486321748643601E-7</v>
       </c>
     </row>
@@ -1470,7 +1469,7 @@
       <c r="C46">
         <v>6.23635167201698E-2</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="4">
         <v>2.2048440348019002E-3</v>
       </c>
     </row>
@@ -1484,7 +1483,7 @@
       <c r="C47">
         <v>-4.8792847809161002E-3</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="4">
         <v>0.84362461401357103</v>
       </c>
     </row>
@@ -1498,7 +1497,7 @@
       <c r="C48">
         <v>-8.6906203171998597E-3</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="4">
         <v>4.3607890749997197E-6</v>
       </c>
     </row>
@@ -1512,7 +1511,7 @@
       <c r="C51">
         <v>3.7033013836886E-3</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="4">
         <v>0.26963330913816602</v>
       </c>
     </row>
@@ -1526,7 +1525,7 @@
       <c r="C52">
         <v>-1.46941939436888E-2</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="4">
         <v>7.4457406156960002E-4</v>
       </c>
     </row>
@@ -1540,7 +1539,7 @@
       <c r="C54">
         <v>4.97259978231414E-3</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="4">
         <v>0.14038342487334901</v>
       </c>
     </row>
@@ -1554,7 +1553,7 @@
       <c r="C55">
         <v>4.4307879617693299E-4</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="4">
         <v>0.82027571364049601</v>
       </c>
     </row>
@@ -1566,10 +1565,10 @@
         <v>5</v>
       </c>
       <c r="C56">
-        <v>5.7313301779360001E-4</v>
-      </c>
-      <c r="D56" s="1">
-        <v>5.7396598352432401E-82</v>
+        <v>5.7328918549710004E-4</v>
+      </c>
+      <c r="D56" s="4">
+        <v>4.9179782811719603E-82</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1580,10 +1579,10 @@
         <v>6</v>
       </c>
       <c r="C57">
-        <v>0.39011711623294598</v>
-      </c>
-      <c r="D57" s="1">
-        <v>7.5855300085947993E-24</v>
+        <v>0.38996410815812299</v>
+      </c>
+      <c r="D57" s="4">
+        <v>7.9010155395044902E-24</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1594,10 +1593,10 @@
         <v>7</v>
       </c>
       <c r="C58">
-        <v>1.0627045279365E-2</v>
-      </c>
-      <c r="D58" s="1">
-        <v>7.05371490400656E-5</v>
+        <v>1.06520035280622E-2</v>
+      </c>
+      <c r="D58" s="4">
+        <v>6.7825417796111694E-5</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1608,10 +1607,10 @@
         <v>8</v>
       </c>
       <c r="C59">
-        <v>-0.13995482103845999</v>
-      </c>
-      <c r="D59">
-        <v>5.5042836696295699E-2</v>
+        <v>-0.139763156743751</v>
+      </c>
+      <c r="D59" s="4">
+        <v>5.5378383139650302E-2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1622,10 +1621,10 @@
         <v>9</v>
       </c>
       <c r="C64">
-        <v>8.6299112461610497E-2</v>
-      </c>
-      <c r="D64" s="1">
-        <v>1.40990878077763E-6</v>
+        <v>8.6935426385754702E-2</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1.6015573485321001E-6</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1636,10 +1635,10 @@
         <v>10</v>
       </c>
       <c r="C65">
-        <v>3.5912152049348998E-3</v>
-      </c>
-      <c r="D65">
-        <v>0.71478214864575196</v>
+        <v>2.4012685365696002E-3</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0.71895444368772798</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1650,10 +1649,10 @@
         <v>11</v>
       </c>
       <c r="C66">
-        <v>-4.2984503167742697E-3</v>
-      </c>
-      <c r="D66">
-        <v>1.19973432906E-3</v>
+        <v>-4.3761526198025898E-3</v>
+      </c>
+      <c r="D66" s="4">
+        <v>9.6015177439780003E-4</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1664,10 +1663,10 @@
         <v>21</v>
       </c>
       <c r="C67">
-        <v>-1.67412442467475E-2</v>
-      </c>
-      <c r="D67">
-        <v>0.35419353604236198</v>
+        <v>-1.7975797669065999E-2</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0.31590311202920601</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1678,10 +1677,10 @@
         <v>12</v>
       </c>
       <c r="C68">
-        <v>-5.3412806445605997E-3</v>
-      </c>
-      <c r="D68">
-        <v>0.18835053596374701</v>
+        <v>-5.5184782296591999E-3</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0.17480313192961799</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1692,10 +1691,10 @@
         <v>13</v>
       </c>
       <c r="C69">
-        <v>-3.1226831780352998E-3</v>
-      </c>
-      <c r="D69">
-        <v>0.21174921920656301</v>
+        <v>-3.1192818122118002E-3</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0.212864472938463</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1706,10 +1705,10 @@
         <v>14</v>
       </c>
       <c r="C70">
-        <v>-1.7111211128654099E-2</v>
-      </c>
-      <c r="D70" s="1">
-        <v>1.11673916335109E-7</v>
+        <v>-1.7153494606461501E-2</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1.06460615153723E-7</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1719,11 +1718,11 @@
       <c r="B71" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="1">
-        <v>-1.8534716663145101E-5</v>
-      </c>
-      <c r="D71">
-        <v>0.63982842909014304</v>
+      <c r="C71">
+        <v>-7.5208336693279997E-4</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0.72155721427553099</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1734,10 +1733,10 @@
         <v>17</v>
       </c>
       <c r="C73">
-        <v>1.2570167427050001E-3</v>
-      </c>
-      <c r="D73">
-        <v>0.67689840736588802</v>
+        <v>1.17201166167684E-3</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0.68426049606601402</v>
       </c>
     </row>
   </sheetData>
@@ -1749,8 +1748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1759,28 +1758,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1788,225 +1787,225 @@
       <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="5">
-        <v>4.5776190828559999E-4</v>
-      </c>
-      <c r="D3" s="5">
-        <v>6.8325866620889996E-4</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="C3" s="4">
+        <v>4.5764067259090001E-4</v>
+      </c>
+      <c r="D3" s="4">
+        <v>6.8378362228179996E-4</v>
+      </c>
+      <c r="E3" s="4">
         <v>1.0112538326046E-3</v>
       </c>
-      <c r="F3" s="5">
-        <v>5.7313301779360001E-4</v>
+      <c r="F3" s="4">
+        <v>5.7328918549710004E-4</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="4">
-        <v>0.36942696967243199</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.19874446447900901</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="C4" s="3">
+        <v>0.36965322218701901</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.19870615910146799</v>
+      </c>
+      <c r="E4" s="3">
         <v>0.26956031775896</v>
       </c>
-      <c r="F4" s="4">
-        <v>0.39011711623294598</v>
+      <c r="F4" s="3">
+        <v>0.38996410815812299</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="4">
-        <v>2.3893755066493699E-2</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1.46082661841603E-2</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="C5" s="3">
+        <v>2.3871666331404199E-2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.4624830561312399E-2</v>
+      </c>
+      <c r="E5" s="3">
         <v>-7.7421817757200003E-3</v>
       </c>
-      <c r="F5" s="4">
-        <v>1.0627045279365E-2</v>
+      <c r="F5" s="3">
+        <v>1.06520035280622E-2</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="4">
-        <v>-0.17447005055871101</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.262692509507503</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="C6" s="3">
+        <v>-0.17442064233680399</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.26131592423564598</v>
+      </c>
+      <c r="E6" s="3">
         <v>0.602746697546655</v>
       </c>
-      <c r="F6" s="4">
-        <v>-0.13995482103845999</v>
+      <c r="F6" s="3">
+        <v>-0.139763156743751</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="4">
-        <v>8.6202666595121394E-2</v>
-      </c>
-      <c r="D7" s="4">
-        <v>4.7845830551887299E-2</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="C7" s="3">
+        <v>8.7739154793546201E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4.68545862502079E-2</v>
+      </c>
+      <c r="E7" s="3">
         <v>6.23635167201698E-2</v>
       </c>
-      <c r="F7" s="4">
-        <v>8.6299112461610497E-2</v>
+      <c r="F7" s="3">
+        <v>8.6935426385754702E-2</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="4">
-        <v>2.22766207101424E-2</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1.9452960609016999E-3</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="C8" s="3">
+        <v>2.2663049518427399E-2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3.5683711209819999E-3</v>
+      </c>
+      <c r="E8" s="3">
         <v>-4.8792847809161002E-3</v>
       </c>
-      <c r="F8" s="4">
-        <v>3.5912152049348998E-3</v>
+      <c r="F8" s="3">
+        <v>2.4012685365696002E-3</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="4">
-        <v>-6.2581543582461603E-3</v>
-      </c>
-      <c r="D9" s="4">
-        <v>-2.7143657981100701E-3</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="C9" s="3">
+        <v>-6.2859399253724401E-3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-2.6643501942980202E-3</v>
+      </c>
+      <c r="E9" s="3">
         <v>-8.6906203171998597E-3</v>
       </c>
-      <c r="F9" s="4">
-        <v>-4.2984503167742697E-3</v>
+      <c r="F9" s="3">
+        <v>-4.3761526198025898E-3</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4">
-        <v>-1.67412442467475E-2</v>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3">
+        <v>-1.7975797669065999E-2</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="4">
-        <v>1.6069674673948001E-3</v>
-      </c>
-      <c r="D11" s="4">
-        <v>-6.3936060411700002E-3</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4">
-        <v>-5.3412806445605997E-3</v>
+      <c r="C11" s="3">
+        <v>1.3306939680233999E-3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-6.0947950460683003E-3</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3">
+        <v>-5.5184782296591999E-3</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="6">
-        <v>2.3754045473709999E-3</v>
-      </c>
-      <c r="D12" s="4">
-        <v>-5.1548339608083003E-3</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="C12" s="5">
+        <v>2.3472106558453001E-3</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-4.7496094838162996E-3</v>
+      </c>
+      <c r="E12" s="3">
         <v>3.7033013836886E-3</v>
       </c>
-      <c r="F12" s="4">
-        <v>-3.1226831780352998E-3</v>
+      <c r="F12" s="3">
+        <v>-3.1192818122118002E-3</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="4">
-        <v>-1.05378121269048E-3</v>
-      </c>
-      <c r="D13" s="4">
-        <v>-1.5955598863435502E-2</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="C13" s="3">
+        <v>-1.31020685117116E-3</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-1.5051930478061901E-2</v>
+      </c>
+      <c r="E13" s="3">
         <v>-1.46941939436888E-2</v>
       </c>
-      <c r="F13" s="4">
-        <v>-1.7111211128654099E-2</v>
+      <c r="F13" s="3">
+        <v>-1.7153494606461501E-2</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="7">
-        <v>-2.1715042383243499E-5</v>
-      </c>
-      <c r="D14" s="7">
-        <v>-6.0421469060278299E-5</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7">
-        <v>-1.8534716663145101E-5</v>
+      <c r="C14" s="4">
+        <v>-8.4625102806419996E-4</v>
+      </c>
+      <c r="D14" s="4">
+        <v>-5.8856194619800999E-3</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="4">
+        <v>-7.5208336693279997E-4</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="4">
-        <v>1.00303855113162E-2</v>
-      </c>
-      <c r="D15" s="4">
-        <v>8.7509692202762095E-3</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="C15" s="3">
+        <v>9.8814598012732201E-3</v>
+      </c>
+      <c r="D15" s="3">
+        <v>8.4555993099673099E-3</v>
+      </c>
+      <c r="E15" s="3">
         <v>4.97259978231414E-3</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="4">
-        <v>-2.2737866263727599E-3</v>
-      </c>
-      <c r="D16" s="4">
-        <v>-1.8145948234954399E-3</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="C16" s="3">
+        <v>-2.5258065640367498E-3</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-1.8289442466380001E-3</v>
+      </c>
+      <c r="E16" s="3">
         <v>4.4307879617693299E-4</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>1.2570167427050001E-3</v>
       </c>
     </row>
